--- a/PLSstatic/PLSstatic_predicted_variables_matrix_9.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_9.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2629556710972555</v>
+        <v>-0.2250723224242941</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2889157474385432</v>
+        <v>-0.8235414954970641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1586357652076399</v>
+        <v>-0.4387644391624299</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1735220053846853</v>
+        <v>-1.147074961362611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1299969620395813</v>
+        <v>-0.5009110175439728</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1424704804311432</v>
+        <v>-1.485441080562453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.06801385719044067</v>
+        <v>-0.1531302537635508</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08333390569712146</v>
+        <v>-0.573688788488365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1544958121910681</v>
+        <v>-0.1656575655538209</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1594271130941272</v>
+        <v>-0.07402481459760665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4398582854065748</v>
+        <v>-0.2963654443817192</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4407181704937857</v>
+        <v>-0.9393552922553143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2621679996932336</v>
+        <v>-0.5277503733184525</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.22996497055724</v>
+        <v>-1.23504387918215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4702844053486177</v>
+        <v>-0.562776351763446</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4392367778483807</v>
+        <v>-1.502304395717307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.314849780884393</v>
+        <v>-0.4967388911302477</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3571643161568692</v>
+        <v>-0.6338882196675701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2478622397902976</v>
+        <v>-0.2914814142137754</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2488273380737934</v>
+        <v>-1.069564228628162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1313485772957513</v>
+        <v>-0.2314283557367993</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1177865406588846</v>
+        <v>-0.5592037072918058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.02704608955305461</v>
+        <v>-0.04778473481036863</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.03523290044418112</v>
+        <v>-0.1046049227360559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.05543005858168194</v>
+        <v>-0.2938613274273816</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.027686985521241</v>
+        <v>-0.4221983671803622</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1359319764569064</v>
+        <v>-0.1429591273362837</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.09058482071300185</v>
+        <v>0.000642066226674419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2246468280181757</v>
+        <v>-0.1893294082381123</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2745819965000306</v>
+        <v>-0.4684428268900849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4551318795334834</v>
+        <v>0.05955896605207452</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4952453825385875</v>
+        <v>0.50688396453999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1080109008954724</v>
+        <v>0.03705577282857093</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1027327164338862</v>
+        <v>0.6247782069348545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.364844588083263</v>
+        <v>0.06061489828042262</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3809448219824355</v>
+        <v>0.5618666914615709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1335971384786407</v>
+        <v>-0.1571418069833503</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1686640871819886</v>
+        <v>-0.3964320809537481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4897961045823409</v>
+        <v>-0.003471962389699979</v>
       </c>
       <c r="B21" t="n">
-        <v>0.506891167252948</v>
+        <v>0.1883330593654449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2631363196835855</v>
+        <v>0.03167019222035432</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2918166477763362</v>
+        <v>0.4756834250290031</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1558487687777784</v>
+        <v>-0.006387495855463117</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1449901280853947</v>
+        <v>0.3088153795977731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.008857395997866</v>
+        <v>0.8133986947206518</v>
       </c>
       <c r="B24" t="n">
-        <v>3.50415574738216</v>
+        <v>2.032610192429753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4233257265450074</v>
+        <v>0.125070091254892</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3962875736023984</v>
+        <v>0.7297210752058592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.319651835885713</v>
+        <v>0.1411341267904336</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3123062030861125</v>
+        <v>0.6497430028463023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1575367911434543</v>
+        <v>0.09689679049832868</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1856121364446403</v>
+        <v>0.7293672251835698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.173222698339899</v>
+        <v>0.3134564689051969</v>
       </c>
       <c r="B28" t="n">
-        <v>1.041063015949494</v>
+        <v>1.233745672600365</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.826301137067754</v>
+        <v>0.6786060401717904</v>
       </c>
       <c r="B29" t="n">
-        <v>3.46388292563097</v>
+        <v>2.156780179750012</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9540461430200391</v>
+        <v>0.2093136870834215</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9073061799877919</v>
+        <v>0.8412898168301894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.3979253150155487</v>
+        <v>0.01529305187396975</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3638147264005726</v>
+        <v>0.5569674790314447</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7400054956275601</v>
+        <v>0.1811026071771276</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7502756239301609</v>
+        <v>1.057994511581706</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8624197814307762</v>
+        <v>0.1182055391581174</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8800857018593231</v>
+        <v>0.8624821284206031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.7015059440861164</v>
+        <v>0.08768050121899851</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7304381641572892</v>
+        <v>0.4927428815764155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8707464251707544</v>
+        <v>0.4353820777895407</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8526696487395868</v>
+        <v>1.411243237406499</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.830530547331056</v>
+        <v>0.2912350789677989</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8096953743496993</v>
+        <v>0.9632579243908342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7547203952003555</v>
+        <v>0.05042502672056587</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7439144711059458</v>
+        <v>0.1470352512500037</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7007688086215172</v>
+        <v>0.3450099733449717</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6957069393822526</v>
+        <v>1.719393195827562</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.611296298685013</v>
+        <v>-0.08945859112374727</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6053737625416279</v>
+        <v>-0.2339953357181078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7982751975415249</v>
+        <v>0.1644749660519773</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8016520294892571</v>
+        <v>0.786559508789839</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.548897394534704</v>
+        <v>-0.1658191690439932</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5435796939920083</v>
+        <v>0.6223379955691422</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7018749544066024</v>
+        <v>0.2550508305455233</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7043168683268977</v>
+        <v>1.558656059231163</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7010217299067671</v>
+        <v>0.1671319211945836</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7018298173751445</v>
+        <v>0.9316666398835916</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6985547060330196</v>
+        <v>-0.1038040671467589</v>
       </c>
       <c r="B44" t="n">
-        <v>0.700135251520009</v>
+        <v>0.2299779245084234</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7124558008359885</v>
+        <v>-0.1047933675262886</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7159611362494193</v>
+        <v>0.1371378966828109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.306320922233048</v>
+        <v>-0.1925832340903354</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.293336372976624</v>
+        <v>-0.5585989308011797</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.01452704910347</v>
+        <v>-0.1900733665003345</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.004815323447999</v>
+        <v>-0.4792173105148722</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8963159956430551</v>
+        <v>-0.2281223999680888</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8808799846370761</v>
+        <v>-0.5954019046430893</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6553134809397684</v>
+        <v>-0.2203032891604934</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6449000791913617</v>
+        <v>-0.6384514050277401</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.05855813498401576</v>
+        <v>-0.1494118902292621</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05416844495013427</v>
+        <v>-0.2895409514732279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8639054423436723</v>
+        <v>-0.2130496504420102</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8669947793268772</v>
+        <v>-0.6766447720347262</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8639054423436723</v>
+        <v>-0.2130496504420102</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8669947793268772</v>
+        <v>-0.6766447720347262</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.150139396675039</v>
+        <v>-0.2040384834060711</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.136583677413483</v>
+        <v>-0.4508419877414442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1843043768467429</v>
+        <v>-0.2095110159062245</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1799547891917326</v>
+        <v>-0.5842841537415164</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.025957134256189</v>
+        <v>-0.1720812250748444</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.010590541009292</v>
+        <v>-0.4355638690044962</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8988031952952557</v>
+        <v>-0.158755944584256</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8878482668861644</v>
+        <v>-0.481504745948469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9863745615185169</v>
+        <v>-0.1972685240135255</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9617923953911728</v>
+        <v>-0.4368972990561003</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.124355938421572</v>
+        <v>-0.1813712751261744</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.141479716696872</v>
+        <v>-0.3844918846135882</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8240748277965365</v>
+        <v>-0.2222104964209077</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8307312052800502</v>
+        <v>-0.6634528545323003</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4596380898770308</v>
+        <v>-0.2095291394061949</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4700354839160993</v>
+        <v>-0.6312153870798277</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3689801475030703</v>
+        <v>-0.2722058757751286</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3737722276386005</v>
+        <v>-0.35158947413762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.229629816641916</v>
+        <v>-0.1606004435188407</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.187265319793831</v>
+        <v>-0.09261315212649859</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.6625964587163666</v>
+        <v>-0.3529602621162478</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.6854638697186701</v>
+        <v>-1.121014838932152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9191295861084976</v>
+        <v>-0.2577444427052165</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9240233281269382</v>
+        <v>-0.5752547464388464</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.06361147117737029</v>
+        <v>-0.1998220054726317</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.0714547648995834</v>
+        <v>-0.5473207601985652</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7882089775904825</v>
+        <v>-0.1203783885389504</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7762020050498878</v>
+        <v>-0.1089765748813438</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.7417697336450277</v>
+        <v>-0.06219604907842365</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.735801708501804</v>
+        <v>-0.06938642046030193</v>
       </c>
     </row>
   </sheetData>
